--- a/new_classification_db/NX - ANTI CLASSIFICATION.xlsx
+++ b/new_classification_db/NX - ANTI CLASSIFICATION.xlsx
@@ -130,7 +130,7 @@
     <t xml:space="preserve">N3</t>
   </si>
   <si>
-    <t xml:space="preserve">DESE CUENTA A S.SA</t>
+    <t xml:space="preserve">DESE CUENTA A S.Sª</t>
   </si>
   <si>
     <t xml:space="preserve">ARCHÍVENSE LOS PRESENTES AUTOS</t>
@@ -496,8 +496,8 @@
   </sheetPr>
   <dimension ref="A1:Z119"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A97" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C113" activeCellId="0" sqref="C113"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B30" activeCellId="0" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/new_classification_db/NX - ANTI CLASSIFICATION.xlsx
+++ b/new_classification_db/NX - ANTI CLASSIFICATION.xlsx
@@ -497,15 +497,15 @@
   <dimension ref="A1:Z119"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B30" activeCellId="0" sqref="B30"/>
+      <selection pane="topLeft" activeCell="B26" activeCellId="1" sqref="B30 B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.8673469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="58.9897959183674"/>
-    <col collapsed="false" hidden="false" max="26" min="3" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="14.1734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.5969387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="58.3163265306122"/>
+    <col collapsed="false" hidden="false" max="26" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="13.9030612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/new_classification_db/NX - ANTI CLASSIFICATION.xlsx
+++ b/new_classification_db/NX - ANTI CLASSIFICATION.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="115">
   <si>
     <t xml:space="preserve">RemoveClass</t>
   </si>
@@ -353,6 +353,9 @@
   </si>
   <si>
     <t xml:space="preserve">NOTARIO DEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOTARIO DE</t>
   </si>
   <si>
     <t xml:space="preserve">POR TODO LO EXPUESTO, AL JUZGADO</t>
@@ -494,18 +497,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z119"/>
+  <dimension ref="A1:Z120"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B26" activeCellId="1" sqref="B30 B26"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A105" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D120" activeCellId="0" sqref="D120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.5969387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="58.3163265306122"/>
-    <col collapsed="false" hidden="false" max="26" min="3" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.3265306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="57.6428571428571"/>
+    <col collapsed="false" hidden="false" max="26" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="13.6326530612245"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1670,13 +1673,13 @@
         <v>105</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C118" s="0" t="s">
         <v>18</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1684,7 +1687,21 @@
         <v>105</v>
       </c>
       <c r="B119" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="C119" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D119" s="0" t="s">
         <v>113</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A120" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="B120" s="0" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/new_classification_db/NX - ANTI CLASSIFICATION.xlsx
+++ b/new_classification_db/NX - ANTI CLASSIFICATION.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="140">
   <si>
     <t xml:space="preserve">RemoveClass</t>
   </si>
@@ -76,18 +76,18 @@
     <t xml:space="preserve">DE DICHA CONSULTA RESULTÓ</t>
   </si>
   <si>
+    <t xml:space="preserve">QUE NO PERTENECE A ESTE PARTIDO JUDICIAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SE ADMITE A TRÁMITE LA OPOSICIÓN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y SERÁ TRAMITADA COMO EJECUCION DE TITULOS JUDICIALES</t>
+  </si>
+  <si>
     <t xml:space="preserve">+</t>
   </si>
   <si>
-    <t xml:space="preserve">QUE NO PERTENECE A ESTE PARTIDO JUDICIAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SE ADMITE A TRÁMITE LA OPOSICIÓN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y SERÁ TRAMITADA COMO EJECUCION DE TITULOS JUDICIALES</t>
-  </si>
-  <si>
     <t xml:space="preserve">Y SERÁ TRAMITADA COMO EJECUCION DE NO TITULOS JUDICIALES</t>
   </si>
   <si>
@@ -106,6 +106,33 @@
     <t xml:space="preserve">Y SERÁ TRAMITADA COMO JUICIO MONITORIO</t>
   </si>
   <si>
+    <t xml:space="preserve">ARCHÍVENSE LOS PRESENTES AUTOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAR POR TERMINADO EL PRESENTE PROCEDIMIENTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DECLARAR TERMINADO EL PRESENTE PROCEDIMIENTO DE EJECUCIÓN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SE ACUERDA DAR POR TERMINADO EL PROCESO MONITORIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SE ACUERDA EL ARCHIVO DE LAS ACTUACIONES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SE DECLARA TERMINADO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SE DECRETA LA TERMINACION DEL PROCESO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TENER POR TERMINADO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SE DECALARAN EMBARGADOS</t>
+  </si>
+  <si>
     <t xml:space="preserve">N2</t>
   </si>
   <si>
@@ -127,15 +154,18 @@
     <t xml:space="preserve">ESTANDO SUSPENDIDOS LOS AUTOS</t>
   </si>
   <si>
+    <t xml:space="preserve">ARCHIVAR LAS ACTUACIONES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SE DECRETA LA TERMINACIÓN DEL PROCESO</t>
+  </si>
+  <si>
     <t xml:space="preserve">N3</t>
   </si>
   <si>
     <t xml:space="preserve">DESE CUENTA A S.Sª</t>
   </si>
   <si>
-    <t xml:space="preserve">ARCHÍVENSE LOS PRESENTES AUTOS</t>
-  </si>
-  <si>
     <t xml:space="preserve">ACORDÓ DESPACHAR EJECUCION</t>
   </si>
   <si>
@@ -160,9 +190,6 @@
     <t xml:space="preserve">ASUNTO QUE MOTIVA EL EXHORTO</t>
   </si>
   <si>
-    <t xml:space="preserve">DECLARAR TERMINADO EL PRESENTE PROCEDIMIENTO DE EJECUCIÓN</t>
-  </si>
-  <si>
     <t xml:space="preserve">LE APERCIBO QUE SI QUIERE OPONERSE DEBE REALIZARLO MEDIANTE ESCRITO DE OPOSICIÓN DENTRO DEL TÉRMINO DE VEINTE DÍAS</t>
   </si>
   <si>
@@ -187,6 +214,18 @@
     <t xml:space="preserve">ALEGUEN LO QUE A SU DERECHO</t>
   </si>
   <si>
+    <t xml:space="preserve">SE HA DICTADO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORDEN GENERAL DE EJECUCION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACUERDO DAR CUENTA A S.Sª</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DESE CUENTA A LA MAGISTRADO JUEZ</t>
+  </si>
+  <si>
     <t xml:space="preserve">N4</t>
   </si>
   <si>
@@ -196,12 +235,15 @@
     <t xml:space="preserve">N5</t>
   </si>
   <si>
+    <t xml:space="preserve">SE DA CUENTA A S.Sª</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAR CUENTA A S.Sª</t>
+  </si>
+  <si>
     <t xml:space="preserve">ACUERDO DAR CUENTA A S.SA</t>
   </si>
   <si>
-    <t xml:space="preserve">DESE CUENTA A LA MAGISTRADO JUEZ</t>
-  </si>
-  <si>
     <t xml:space="preserve">N6</t>
   </si>
   <si>
@@ -214,6 +256,9 @@
     <t xml:space="preserve">DADO QUE CONSTA UNA AVERIGUACIÓN PATRIMONIAL</t>
   </si>
   <si>
+    <t xml:space="preserve">N7</t>
+  </si>
+  <si>
     <t xml:space="preserve">N8</t>
   </si>
   <si>
@@ -232,12 +277,45 @@
     <t xml:space="preserve">NO CONSTANDO DOMICILIO ALTERNATIVO</t>
   </si>
   <si>
+    <t xml:space="preserve">LA AVERIGUACIÓN PRACTICADA DE LA QUE SE DIO TRASLADO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRACTIQUESE LA AVERIGUACION DEL DOMICILIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A FIN DE AVERIGUACION DEL DOMICILIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO PROCEDE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AL NO CONSTAR EN LA AVERIGUACION PATRIMONIAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROCÉDASE A LA AVERIGUACIÓN DOMICILIARIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROCÉDASE A LA AVERIGUACIÓN DE DOMICILIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSULTADA LA BASE INTEGRAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y NO CONSTANDO EN LA AVERIGUACIÓN PATRIMONIAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AVERIGUACIÓN DOMICILIARIA INTEGRAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QUE RESULTARON PROCEDENTES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LA AVERIGUACIÓN DEL ACTUAL DOMICILIO</t>
+  </si>
+  <si>
     <t xml:space="preserve">N9</t>
   </si>
   <si>
-    <t xml:space="preserve">SE ACUERDA DAR POR TERMINADO EL PROCESO MONITORIO</t>
-  </si>
-  <si>
     <t xml:space="preserve">SI CAMBIASEN SU DOMICILIO</t>
   </si>
   <si>
@@ -253,15 +331,9 @@
     <t xml:space="preserve">EN EL ACTO DEL REQUERIMIENTO</t>
   </si>
   <si>
-    <t xml:space="preserve">SE DECRETA LA TERMINACIÓN DEL PROCESO</t>
-  </si>
-  <si>
     <t xml:space="preserve">REQUERIR AL COEJECUTADO</t>
   </si>
   <si>
-    <t xml:space="preserve">SE ACUERDA EL ARCHIVO DE LAS ACTUACIONES</t>
-  </si>
-  <si>
     <t xml:space="preserve">REQUERIR AL EJECUTADO</t>
   </si>
   <si>
@@ -301,7 +373,7 @@
     <t xml:space="preserve">EN CONTESTACION A REQUERIMIENTO</t>
   </si>
   <si>
-    <t xml:space="preserve">DAR POR TERMINADO EL PRESENTE PROCEDIMIENTO</t>
+    <t xml:space="preserve">DAR TRASLADO DEL REFERIDO ESCRITO A LAS DEMÁS PARTES</t>
   </si>
   <si>
     <t xml:space="preserve">N11</t>
@@ -314,6 +386,9 @@
   </si>
   <si>
     <t xml:space="preserve">CUENTA DE FONDOS PROVISIONALMENTE ABANDONADOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HABIÉNDOSE TRANSFERIDO LA CANTIDAD</t>
   </si>
   <si>
     <t xml:space="preserve">N12</t>
@@ -374,7 +449,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -409,6 +484,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -459,7 +540,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -472,11 +553,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -497,18 +586,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z120"/>
+  <dimension ref="A1:Z65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A105" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D120" activeCellId="0" sqref="D120"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A77" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B97" activeCellId="0" sqref="B97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.3265306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="57.6428571428571"/>
-    <col collapsed="false" hidden="false" max="26" min="3" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.0612244897959"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="66.9642857142857"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="81.0051020408163"/>
+    <col collapsed="false" hidden="false" max="26" min="5" style="0" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="13.3622448979592"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -638,11 +729,8 @@
       <c r="B16" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="D16" s="0" t="s">
         <v>18</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -650,7 +738,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -658,13 +746,13 @@
         <v>2</v>
       </c>
       <c r="B18" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="D18" s="0" t="s">
         <v>18</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -690,9 +778,7 @@
       <c r="B21" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="0" t="s">
-        <v>18</v>
-      </c>
+      <c r="C21" s="3"/>
       <c r="D21" s="0" t="s">
         <v>25</v>
       </c>
@@ -709,651 +795,1012 @@
       <c r="A23" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="0" t="s">
+    </row>
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="0" t="s">
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="0" t="s">
+    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="0" t="s">
+    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="0" t="s">
+    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="0" t="s">
+    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="0" t="s">
+    </row>
+    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" s="0" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B39" s="0" t="s">
-        <v>45</v>
+        <v>37</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>46</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B41" s="0" t="s">
-        <v>47</v>
+        <v>37</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
-      <c r="Q44" s="1"/>
-      <c r="R44" s="1"/>
-      <c r="S44" s="1"/>
-      <c r="T44" s="1"/>
-      <c r="U44" s="1"/>
-      <c r="V44" s="1"/>
-      <c r="W44" s="1"/>
-      <c r="X44" s="1"/>
-      <c r="Y44" s="1"/>
-      <c r="Z44" s="1"/>
+      <c r="A44" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
-      <c r="Q45" s="1"/>
-      <c r="R45" s="1"/>
-      <c r="S45" s="1"/>
-      <c r="T45" s="1"/>
-      <c r="U45" s="1"/>
-      <c r="V45" s="1"/>
-      <c r="W45" s="1"/>
-      <c r="X45" s="1"/>
-      <c r="Y45" s="1"/>
-      <c r="Z45" s="1"/>
+      <c r="A45" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="1"/>
-      <c r="Q46" s="1"/>
-      <c r="R46" s="1"/>
-      <c r="S46" s="1"/>
-      <c r="T46" s="1"/>
-      <c r="U46" s="1"/>
-      <c r="V46" s="1"/>
-      <c r="W46" s="1"/>
-      <c r="X46" s="1"/>
-      <c r="Y46" s="1"/>
-      <c r="Z46" s="1"/>
+      <c r="A46" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C47" s="3" t="s">
+      <c r="A47" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
-      <c r="P47" s="1"/>
-      <c r="Q47" s="1"/>
-      <c r="R47" s="1"/>
-      <c r="S47" s="1"/>
-      <c r="T47" s="1"/>
-      <c r="U47" s="1"/>
-      <c r="V47" s="1"/>
-      <c r="W47" s="1"/>
-      <c r="X47" s="1"/>
-      <c r="Y47" s="1"/>
-      <c r="Z47" s="1"/>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>58</v>
+        <v>37</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>59</v>
+      <c r="A50" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>62</v>
+        <v>37</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>63</v>
+      <c r="A53" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="C55" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D55" s="0" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>16</v>
+        <v>46</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>69</v>
+        <v>46</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>16</v>
+        <v>46</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>75</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="B70" s="0" t="s">
-        <v>3</v>
-      </c>
+      <c r="A70" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
+      <c r="P70" s="1"/>
+      <c r="Q70" s="1"/>
+      <c r="R70" s="1"/>
+      <c r="S70" s="1"/>
+      <c r="T70" s="1"/>
+      <c r="U70" s="1"/>
+      <c r="V70" s="1"/>
+      <c r="W70" s="1"/>
+      <c r="X70" s="1"/>
+      <c r="Y70" s="1"/>
+      <c r="Z70" s="1"/>
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="B71" s="0" t="s">
+      <c r="A71" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+      <c r="O71" s="1"/>
+      <c r="P71" s="1"/>
+      <c r="Q71" s="1"/>
+      <c r="R71" s="1"/>
+      <c r="S71" s="1"/>
+      <c r="T71" s="1"/>
+      <c r="U71" s="1"/>
+      <c r="V71" s="1"/>
+      <c r="W71" s="1"/>
+      <c r="X71" s="1"/>
+      <c r="Y71" s="1"/>
+      <c r="Z71" s="1"/>
+    </row>
+    <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+      <c r="O72" s="1"/>
+      <c r="P72" s="1"/>
+      <c r="Q72" s="1"/>
+      <c r="R72" s="1"/>
+      <c r="S72" s="1"/>
+      <c r="T72" s="1"/>
+      <c r="U72" s="1"/>
+      <c r="V72" s="1"/>
+      <c r="W72" s="1"/>
+      <c r="X72" s="1"/>
+      <c r="Y72" s="1"/>
+      <c r="Z72" s="1"/>
+    </row>
+    <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+      <c r="O73" s="1"/>
+      <c r="P73" s="1"/>
+      <c r="Q73" s="1"/>
+      <c r="R73" s="1"/>
+      <c r="S73" s="1"/>
+      <c r="T73" s="1"/>
+      <c r="U73" s="1"/>
+      <c r="V73" s="1"/>
+      <c r="W73" s="1"/>
+      <c r="X73" s="1"/>
+      <c r="Y73" s="1"/>
+      <c r="Z73" s="1"/>
+    </row>
+    <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A74" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+      <c r="O74" s="1"/>
+      <c r="P74" s="1"/>
+      <c r="Q74" s="1"/>
+      <c r="R74" s="1"/>
+      <c r="S74" s="1"/>
+      <c r="T74" s="1"/>
+      <c r="U74" s="1"/>
+      <c r="V74" s="1"/>
+      <c r="W74" s="1"/>
+      <c r="X74" s="1"/>
+      <c r="Y74" s="1"/>
+      <c r="Z74" s="1"/>
+    </row>
+    <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A75" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+      <c r="O75" s="1"/>
+      <c r="P75" s="1"/>
+      <c r="Q75" s="1"/>
+      <c r="R75" s="1"/>
+      <c r="S75" s="1"/>
+      <c r="T75" s="1"/>
+      <c r="U75" s="1"/>
+      <c r="V75" s="1"/>
+      <c r="W75" s="1"/>
+      <c r="X75" s="1"/>
+      <c r="Y75" s="1"/>
+      <c r="Z75" s="1"/>
+    </row>
+    <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A76" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+      <c r="O76" s="1"/>
+      <c r="P76" s="1"/>
+      <c r="Q76" s="1"/>
+      <c r="R76" s="1"/>
+      <c r="S76" s="1"/>
+      <c r="T76" s="1"/>
+      <c r="U76" s="1"/>
+      <c r="V76" s="1"/>
+      <c r="W76" s="1"/>
+      <c r="X76" s="1"/>
+      <c r="Y76" s="1"/>
+      <c r="Z76" s="1"/>
+    </row>
+    <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A77" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+      <c r="O77" s="1"/>
+      <c r="P77" s="1"/>
+      <c r="Q77" s="1"/>
+      <c r="R77" s="1"/>
+      <c r="S77" s="1"/>
+      <c r="T77" s="1"/>
+      <c r="U77" s="1"/>
+      <c r="V77" s="1"/>
+      <c r="W77" s="1"/>
+      <c r="X77" s="1"/>
+      <c r="Y77" s="1"/>
+      <c r="Z77" s="1"/>
+    </row>
+    <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A78" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+      <c r="O78" s="1"/>
+      <c r="P78" s="1"/>
+      <c r="Q78" s="1"/>
+      <c r="R78" s="1"/>
+      <c r="S78" s="1"/>
+      <c r="T78" s="1"/>
+      <c r="U78" s="1"/>
+      <c r="V78" s="1"/>
+      <c r="W78" s="1"/>
+      <c r="X78" s="1"/>
+      <c r="Y78" s="1"/>
+      <c r="Z78" s="1"/>
+    </row>
+    <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A79" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+      <c r="O79" s="1"/>
+      <c r="P79" s="1"/>
+      <c r="Q79" s="1"/>
+      <c r="R79" s="1"/>
+      <c r="S79" s="1"/>
+      <c r="T79" s="1"/>
+      <c r="U79" s="1"/>
+      <c r="V79" s="1"/>
+      <c r="W79" s="1"/>
+      <c r="X79" s="1"/>
+      <c r="Y79" s="1"/>
+      <c r="Z79" s="1"/>
+    </row>
+    <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A80" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+      <c r="O80" s="1"/>
+      <c r="P80" s="1"/>
+      <c r="Q80" s="1"/>
+      <c r="R80" s="1"/>
+      <c r="S80" s="1"/>
+      <c r="T80" s="1"/>
+      <c r="U80" s="1"/>
+      <c r="V80" s="1"/>
+      <c r="W80" s="1"/>
+      <c r="X80" s="1"/>
+      <c r="Y80" s="1"/>
+      <c r="Z80" s="1"/>
+    </row>
+    <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A81" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C81" s="4"/>
+      <c r="D81" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+      <c r="O81" s="1"/>
+      <c r="P81" s="1"/>
+      <c r="Q81" s="1"/>
+      <c r="R81" s="1"/>
+      <c r="S81" s="1"/>
+      <c r="T81" s="1"/>
+      <c r="U81" s="1"/>
+      <c r="V81" s="1"/>
+      <c r="W81" s="1"/>
+      <c r="X81" s="1"/>
+      <c r="Y81" s="1"/>
+      <c r="Z81" s="1"/>
+    </row>
+    <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A82" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+      <c r="O82" s="1"/>
+      <c r="P82" s="1"/>
+      <c r="Q82" s="1"/>
+      <c r="R82" s="1"/>
+      <c r="S82" s="1"/>
+      <c r="T82" s="1"/>
+      <c r="U82" s="1"/>
+      <c r="V82" s="1"/>
+      <c r="W82" s="1"/>
+      <c r="X82" s="1"/>
+      <c r="Y82" s="1"/>
+      <c r="Z82" s="1"/>
+    </row>
+    <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A83" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+      <c r="O83" s="1"/>
+      <c r="P83" s="1"/>
+      <c r="Q83" s="1"/>
+      <c r="R83" s="1"/>
+      <c r="S83" s="1"/>
+      <c r="T83" s="1"/>
+      <c r="U83" s="1"/>
+      <c r="V83" s="1"/>
+      <c r="W83" s="1"/>
+      <c r="X83" s="1"/>
+      <c r="Y83" s="1"/>
+      <c r="Z83" s="1"/>
+    </row>
+    <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A84" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
+      <c r="O84" s="1"/>
+      <c r="P84" s="1"/>
+      <c r="Q84" s="1"/>
+      <c r="R84" s="1"/>
+      <c r="S84" s="1"/>
+      <c r="T84" s="1"/>
+      <c r="U84" s="1"/>
+      <c r="V84" s="1"/>
+      <c r="W84" s="1"/>
+      <c r="X84" s="1"/>
+      <c r="Y84" s="1"/>
+      <c r="Z84" s="1"/>
+    </row>
+    <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A85" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
+      <c r="N85" s="1"/>
+      <c r="O85" s="1"/>
+      <c r="P85" s="1"/>
+      <c r="Q85" s="1"/>
+      <c r="R85" s="1"/>
+      <c r="S85" s="1"/>
+      <c r="T85" s="1"/>
+      <c r="U85" s="1"/>
+      <c r="V85" s="1"/>
+      <c r="W85" s="1"/>
+      <c r="X85" s="1"/>
+      <c r="Y85" s="1"/>
+      <c r="Z85" s="1"/>
+    </row>
+    <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A86" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B86" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="B72" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="B73" s="0" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="B74" s="0" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="B75" s="0" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="B76" s="0" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="B77" s="0" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="B78" s="0" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="B79" s="0" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="B80" s="0" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="B81" s="0" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="B82" s="0" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="B83" s="0" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="B84" s="0" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="B85" s="0" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="B86" s="0" t="s">
-        <v>89</v>
-      </c>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
+      <c r="O86" s="1"/>
+      <c r="P86" s="1"/>
+      <c r="Q86" s="1"/>
+      <c r="R86" s="1"/>
+      <c r="S86" s="1"/>
+      <c r="T86" s="1"/>
+      <c r="U86" s="1"/>
+      <c r="V86" s="1"/>
+      <c r="W86" s="1"/>
+      <c r="X86" s="1"/>
+      <c r="Y86" s="1"/>
+      <c r="Z86" s="1"/>
     </row>
     <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="B87" s="0" t="s">
-        <v>90</v>
-      </c>
+      <c r="A87" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+      <c r="O87" s="1"/>
+      <c r="P87" s="1"/>
+      <c r="Q87" s="1"/>
+      <c r="R87" s="1"/>
+      <c r="S87" s="1"/>
+      <c r="T87" s="1"/>
+      <c r="U87" s="1"/>
+      <c r="V87" s="1"/>
+      <c r="W87" s="1"/>
+      <c r="X87" s="1"/>
+      <c r="Y87" s="1"/>
+      <c r="Z87" s="1"/>
     </row>
     <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="B88" s="0" t="s">
-        <v>80</v>
-      </c>
+      <c r="A88" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+      <c r="O88" s="1"/>
+      <c r="P88" s="1"/>
+      <c r="Q88" s="1"/>
+      <c r="R88" s="1"/>
+      <c r="S88" s="1"/>
+      <c r="T88" s="1"/>
+      <c r="U88" s="1"/>
+      <c r="V88" s="1"/>
+      <c r="W88" s="1"/>
+      <c r="X88" s="1"/>
+      <c r="Y88" s="1"/>
+      <c r="Z88" s="1"/>
     </row>
     <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A89" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
+      <c r="A89" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
@@ -1376,16 +1823,16 @@
       <c r="Z89" s="1"/>
     </row>
     <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
+      <c r="A90" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
@@ -1408,302 +1855,2324 @@
       <c r="Z90" s="1"/>
     </row>
     <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
-      <c r="G91" s="1"/>
-      <c r="H91" s="1"/>
-      <c r="I91" s="1"/>
-      <c r="J91" s="1"/>
-      <c r="K91" s="1"/>
-      <c r="L91" s="1"/>
-      <c r="M91" s="1"/>
-      <c r="N91" s="1"/>
-      <c r="O91" s="1"/>
-      <c r="P91" s="1"/>
-      <c r="Q91" s="1"/>
-      <c r="R91" s="1"/>
-      <c r="S91" s="1"/>
-      <c r="T91" s="1"/>
-      <c r="U91" s="1"/>
-      <c r="V91" s="1"/>
-      <c r="W91" s="1"/>
-      <c r="X91" s="1"/>
-      <c r="Y91" s="1"/>
-      <c r="Z91" s="1"/>
+      <c r="A91" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="C92" s="0" t="s">
-        <v>96</v>
+        <v>47</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="B94" s="0" t="s">
-        <v>29</v>
+        <v>70</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="B95" s="0" t="s">
-        <v>30</v>
+        <v>70</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="B96" s="0" t="s">
-        <v>99</v>
+        <v>70</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="B97" s="0" t="s">
-        <v>100</v>
+      <c r="A97" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="B99" s="0" t="s">
-        <v>34</v>
+        <v>74</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="B100" s="0" t="s">
-        <v>102</v>
+      <c r="A100" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="B101" s="0" t="s">
-        <v>65</v>
+      <c r="A101" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="B102" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="C102" s="0" t="s">
+      <c r="A102" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A103" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A104" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A105" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A106" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A107" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A108" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A109" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D109" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="D102" s="0" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="B103" s="0" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="B104" s="0" t="s">
+    </row>
+    <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A110" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A111" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B111" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A107" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="B107" s="0" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="B108" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="C108" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D108" s="0" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A109" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="B109" s="0" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A110" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="B110" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A111" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="B111" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
     <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A112" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>93</v>
+      <c r="A112" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A113" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>69</v>
+      <c r="A113" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A114" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="B114" s="0" t="s">
-        <v>106</v>
+      <c r="A114" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A115" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="B115" s="0" t="s">
-        <v>107</v>
+      <c r="A115" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A116" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="B116" s="0" t="s">
-        <v>108</v>
+      <c r="A116" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="B117" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="C117" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D117" s="0" t="s">
-        <v>110</v>
+      <c r="A117" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="C118" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D118" s="0" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B120" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A121" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B121" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A122" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A123" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A124" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A125" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A126" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A127" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A128" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A129" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A130" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A131" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A132" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A133" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A134" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A135" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A136" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A137" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A138" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A139" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A140" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A141" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A142" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A143" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A144" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A145" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D145" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A146" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A147" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A148" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A149" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A150" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A151" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A152" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A153" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B153" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A154" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B154" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A155" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B155" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A156" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B156" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A157" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B157" s="0" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A158" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A159" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B159" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A160" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A161" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A162" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A163" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A164" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A165" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A166" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A167" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A168" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B168" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A169" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A170" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A171" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A172" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A173" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A174" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A175" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B175" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A176" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A177" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B177" s="0" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A178" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B178" s="0" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A179" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B179" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A180" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B180" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A181" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B181" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A182" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B182" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A183" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B183" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A184" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B184" s="0" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A185" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B185" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A186" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B186" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A187" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B187" s="0" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A188" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B188" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="B120" s="0" t="s">
+    </row>
+    <row r="189" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A189" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B189" s="0" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A190" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B190" s="0" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A191" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B191" s="0" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A192" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B192" s="0" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A193" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B193" s="0" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A194" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B194" s="0" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A195" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B195" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A196" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B196" s="0" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A197" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B197" s="0" t="s">
         <v>114</v>
       </c>
     </row>
+    <row r="198" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A198" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B198" s="0" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A199" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C199" s="1"/>
+      <c r="D199" s="1"/>
+      <c r="E199" s="1"/>
+      <c r="F199" s="1"/>
+      <c r="G199" s="1"/>
+      <c r="H199" s="1"/>
+      <c r="I199" s="1"/>
+      <c r="J199" s="1"/>
+      <c r="K199" s="1"/>
+      <c r="L199" s="1"/>
+      <c r="M199" s="1"/>
+      <c r="N199" s="1"/>
+      <c r="O199" s="1"/>
+      <c r="P199" s="1"/>
+      <c r="Q199" s="1"/>
+      <c r="R199" s="1"/>
+      <c r="S199" s="1"/>
+      <c r="T199" s="1"/>
+      <c r="U199" s="1"/>
+      <c r="V199" s="1"/>
+      <c r="W199" s="1"/>
+      <c r="X199" s="1"/>
+      <c r="Y199" s="1"/>
+      <c r="Z199" s="1"/>
+    </row>
+    <row r="200" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A200" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C200" s="1"/>
+      <c r="D200" s="1"/>
+      <c r="E200" s="1"/>
+      <c r="F200" s="1"/>
+      <c r="G200" s="1"/>
+      <c r="H200" s="1"/>
+      <c r="I200" s="1"/>
+      <c r="J200" s="1"/>
+      <c r="K200" s="1"/>
+      <c r="L200" s="1"/>
+      <c r="M200" s="1"/>
+      <c r="N200" s="1"/>
+      <c r="O200" s="1"/>
+      <c r="P200" s="1"/>
+      <c r="Q200" s="1"/>
+      <c r="R200" s="1"/>
+      <c r="S200" s="1"/>
+      <c r="T200" s="1"/>
+      <c r="U200" s="1"/>
+      <c r="V200" s="1"/>
+      <c r="W200" s="1"/>
+      <c r="X200" s="1"/>
+      <c r="Y200" s="1"/>
+      <c r="Z200" s="1"/>
+    </row>
+    <row r="201" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A201" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C201" s="1"/>
+      <c r="D201" s="1"/>
+      <c r="E201" s="1"/>
+      <c r="F201" s="1"/>
+      <c r="G201" s="1"/>
+      <c r="H201" s="1"/>
+      <c r="I201" s="1"/>
+      <c r="J201" s="1"/>
+      <c r="K201" s="1"/>
+      <c r="L201" s="1"/>
+      <c r="M201" s="1"/>
+      <c r="N201" s="1"/>
+      <c r="O201" s="1"/>
+      <c r="P201" s="1"/>
+      <c r="Q201" s="1"/>
+      <c r="R201" s="1"/>
+      <c r="S201" s="1"/>
+      <c r="T201" s="1"/>
+      <c r="U201" s="1"/>
+      <c r="V201" s="1"/>
+      <c r="W201" s="1"/>
+      <c r="X201" s="1"/>
+      <c r="Y201" s="1"/>
+      <c r="Z201" s="1"/>
+    </row>
+    <row r="202" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A202" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C202" s="1"/>
+      <c r="D202" s="1"/>
+      <c r="E202" s="1"/>
+      <c r="F202" s="1"/>
+      <c r="G202" s="1"/>
+      <c r="H202" s="1"/>
+      <c r="I202" s="1"/>
+      <c r="J202" s="1"/>
+      <c r="K202" s="1"/>
+      <c r="L202" s="1"/>
+      <c r="M202" s="1"/>
+      <c r="N202" s="1"/>
+      <c r="O202" s="1"/>
+      <c r="P202" s="1"/>
+      <c r="Q202" s="1"/>
+      <c r="R202" s="1"/>
+      <c r="S202" s="1"/>
+      <c r="T202" s="1"/>
+      <c r="U202" s="1"/>
+      <c r="V202" s="1"/>
+      <c r="W202" s="1"/>
+      <c r="X202" s="1"/>
+      <c r="Y202" s="1"/>
+      <c r="Z202" s="1"/>
+    </row>
+    <row r="203" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A203" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C203" s="1"/>
+      <c r="D203" s="1"/>
+      <c r="E203" s="1"/>
+      <c r="F203" s="1"/>
+      <c r="G203" s="1"/>
+      <c r="H203" s="1"/>
+      <c r="I203" s="1"/>
+      <c r="J203" s="1"/>
+      <c r="K203" s="1"/>
+      <c r="L203" s="1"/>
+      <c r="M203" s="1"/>
+      <c r="N203" s="1"/>
+      <c r="O203" s="1"/>
+      <c r="P203" s="1"/>
+      <c r="Q203" s="1"/>
+      <c r="R203" s="1"/>
+      <c r="S203" s="1"/>
+      <c r="T203" s="1"/>
+      <c r="U203" s="1"/>
+      <c r="V203" s="1"/>
+      <c r="W203" s="1"/>
+      <c r="X203" s="1"/>
+      <c r="Y203" s="1"/>
+      <c r="Z203" s="1"/>
+    </row>
+    <row r="204" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A204" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C204" s="1"/>
+      <c r="D204" s="1"/>
+      <c r="E204" s="1"/>
+      <c r="F204" s="1"/>
+      <c r="G204" s="1"/>
+      <c r="H204" s="1"/>
+      <c r="I204" s="1"/>
+      <c r="J204" s="1"/>
+      <c r="K204" s="1"/>
+      <c r="L204" s="1"/>
+      <c r="M204" s="1"/>
+      <c r="N204" s="1"/>
+      <c r="O204" s="1"/>
+      <c r="P204" s="1"/>
+      <c r="Q204" s="1"/>
+      <c r="R204" s="1"/>
+      <c r="S204" s="1"/>
+      <c r="T204" s="1"/>
+      <c r="U204" s="1"/>
+      <c r="V204" s="1"/>
+      <c r="W204" s="1"/>
+      <c r="X204" s="1"/>
+      <c r="Y204" s="1"/>
+      <c r="Z204" s="1"/>
+    </row>
+    <row r="205" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A205" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C205" s="1"/>
+      <c r="D205" s="1"/>
+      <c r="E205" s="1"/>
+      <c r="F205" s="1"/>
+      <c r="G205" s="1"/>
+      <c r="H205" s="1"/>
+      <c r="I205" s="1"/>
+      <c r="J205" s="1"/>
+      <c r="K205" s="1"/>
+      <c r="L205" s="1"/>
+      <c r="M205" s="1"/>
+      <c r="N205" s="1"/>
+      <c r="O205" s="1"/>
+      <c r="P205" s="1"/>
+      <c r="Q205" s="1"/>
+      <c r="R205" s="1"/>
+      <c r="S205" s="1"/>
+      <c r="T205" s="1"/>
+      <c r="U205" s="1"/>
+      <c r="V205" s="1"/>
+      <c r="W205" s="1"/>
+      <c r="X205" s="1"/>
+      <c r="Y205" s="1"/>
+      <c r="Z205" s="1"/>
+    </row>
+    <row r="206" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A206" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B206" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C206" s="1"/>
+      <c r="D206" s="1"/>
+      <c r="E206" s="1"/>
+      <c r="F206" s="1"/>
+      <c r="G206" s="1"/>
+      <c r="H206" s="1"/>
+      <c r="I206" s="1"/>
+      <c r="J206" s="1"/>
+      <c r="K206" s="1"/>
+      <c r="L206" s="1"/>
+      <c r="M206" s="1"/>
+      <c r="N206" s="1"/>
+      <c r="O206" s="1"/>
+      <c r="P206" s="1"/>
+      <c r="Q206" s="1"/>
+      <c r="R206" s="1"/>
+      <c r="S206" s="1"/>
+      <c r="T206" s="1"/>
+      <c r="U206" s="1"/>
+      <c r="V206" s="1"/>
+      <c r="W206" s="1"/>
+      <c r="X206" s="1"/>
+      <c r="Y206" s="1"/>
+      <c r="Z206" s="1"/>
+    </row>
+    <row r="207" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A207" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B207" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C207" s="1"/>
+      <c r="D207" s="1"/>
+      <c r="E207" s="1"/>
+      <c r="F207" s="1"/>
+      <c r="G207" s="1"/>
+      <c r="H207" s="1"/>
+      <c r="I207" s="1"/>
+      <c r="J207" s="1"/>
+      <c r="K207" s="1"/>
+      <c r="L207" s="1"/>
+      <c r="M207" s="1"/>
+      <c r="N207" s="1"/>
+      <c r="O207" s="1"/>
+      <c r="P207" s="1"/>
+      <c r="Q207" s="1"/>
+      <c r="R207" s="1"/>
+      <c r="S207" s="1"/>
+      <c r="T207" s="1"/>
+      <c r="U207" s="1"/>
+      <c r="V207" s="1"/>
+      <c r="W207" s="1"/>
+      <c r="X207" s="1"/>
+      <c r="Y207" s="1"/>
+      <c r="Z207" s="1"/>
+    </row>
+    <row r="208" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A208" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C208" s="1"/>
+      <c r="D208" s="1"/>
+      <c r="E208" s="1"/>
+      <c r="F208" s="1"/>
+      <c r="G208" s="1"/>
+      <c r="H208" s="1"/>
+      <c r="I208" s="1"/>
+      <c r="J208" s="1"/>
+      <c r="K208" s="1"/>
+      <c r="L208" s="1"/>
+      <c r="M208" s="1"/>
+      <c r="N208" s="1"/>
+      <c r="O208" s="1"/>
+      <c r="P208" s="1"/>
+      <c r="Q208" s="1"/>
+      <c r="R208" s="1"/>
+      <c r="S208" s="1"/>
+      <c r="T208" s="1"/>
+      <c r="U208" s="1"/>
+      <c r="V208" s="1"/>
+      <c r="W208" s="1"/>
+      <c r="X208" s="1"/>
+      <c r="Y208" s="1"/>
+      <c r="Z208" s="1"/>
+    </row>
+    <row r="209" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A209" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C209" s="1"/>
+      <c r="D209" s="1"/>
+      <c r="E209" s="1"/>
+      <c r="F209" s="1"/>
+      <c r="G209" s="1"/>
+      <c r="H209" s="1"/>
+      <c r="I209" s="1"/>
+      <c r="J209" s="1"/>
+      <c r="K209" s="1"/>
+      <c r="L209" s="1"/>
+      <c r="M209" s="1"/>
+      <c r="N209" s="1"/>
+      <c r="O209" s="1"/>
+      <c r="P209" s="1"/>
+      <c r="Q209" s="1"/>
+      <c r="R209" s="1"/>
+      <c r="S209" s="1"/>
+      <c r="T209" s="1"/>
+      <c r="U209" s="1"/>
+      <c r="V209" s="1"/>
+      <c r="W209" s="1"/>
+      <c r="X209" s="1"/>
+      <c r="Y209" s="1"/>
+      <c r="Z209" s="1"/>
+    </row>
+    <row r="210" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A210" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B210" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C210" s="1"/>
+      <c r="D210" s="1"/>
+      <c r="E210" s="1"/>
+      <c r="F210" s="1"/>
+      <c r="G210" s="1"/>
+      <c r="H210" s="1"/>
+      <c r="I210" s="1"/>
+      <c r="J210" s="1"/>
+      <c r="K210" s="1"/>
+      <c r="L210" s="1"/>
+      <c r="M210" s="1"/>
+      <c r="N210" s="1"/>
+      <c r="O210" s="1"/>
+      <c r="P210" s="1"/>
+      <c r="Q210" s="1"/>
+      <c r="R210" s="1"/>
+      <c r="S210" s="1"/>
+      <c r="T210" s="1"/>
+      <c r="U210" s="1"/>
+      <c r="V210" s="1"/>
+      <c r="W210" s="1"/>
+      <c r="X210" s="1"/>
+      <c r="Y210" s="1"/>
+      <c r="Z210" s="1"/>
+    </row>
+    <row r="211" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A211" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B211" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C211" s="1"/>
+      <c r="D211" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E211" s="1"/>
+      <c r="F211" s="1"/>
+      <c r="G211" s="1"/>
+      <c r="H211" s="1"/>
+      <c r="I211" s="1"/>
+      <c r="J211" s="1"/>
+      <c r="K211" s="1"/>
+      <c r="L211" s="1"/>
+      <c r="M211" s="1"/>
+      <c r="N211" s="1"/>
+      <c r="O211" s="1"/>
+      <c r="P211" s="1"/>
+      <c r="Q211" s="1"/>
+      <c r="R211" s="1"/>
+      <c r="S211" s="1"/>
+      <c r="T211" s="1"/>
+      <c r="U211" s="1"/>
+      <c r="V211" s="1"/>
+      <c r="W211" s="1"/>
+      <c r="X211" s="1"/>
+      <c r="Y211" s="1"/>
+      <c r="Z211" s="1"/>
+    </row>
+    <row r="212" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A212" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B212" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C212" s="1"/>
+      <c r="D212" s="1"/>
+      <c r="E212" s="1"/>
+      <c r="F212" s="1"/>
+      <c r="G212" s="1"/>
+      <c r="H212" s="1"/>
+      <c r="I212" s="1"/>
+      <c r="J212" s="1"/>
+      <c r="K212" s="1"/>
+      <c r="L212" s="1"/>
+      <c r="M212" s="1"/>
+      <c r="N212" s="1"/>
+      <c r="O212" s="1"/>
+      <c r="P212" s="1"/>
+      <c r="Q212" s="1"/>
+      <c r="R212" s="1"/>
+      <c r="S212" s="1"/>
+      <c r="T212" s="1"/>
+      <c r="U212" s="1"/>
+      <c r="V212" s="1"/>
+      <c r="W212" s="1"/>
+      <c r="X212" s="1"/>
+      <c r="Y212" s="1"/>
+      <c r="Z212" s="1"/>
+    </row>
+    <row r="213" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A213" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B213" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C213" s="1"/>
+      <c r="D213" s="1"/>
+      <c r="E213" s="1"/>
+      <c r="F213" s="1"/>
+      <c r="G213" s="1"/>
+      <c r="H213" s="1"/>
+      <c r="I213" s="1"/>
+      <c r="J213" s="1"/>
+      <c r="K213" s="1"/>
+      <c r="L213" s="1"/>
+      <c r="M213" s="1"/>
+      <c r="N213" s="1"/>
+      <c r="O213" s="1"/>
+      <c r="P213" s="1"/>
+      <c r="Q213" s="1"/>
+      <c r="R213" s="1"/>
+      <c r="S213" s="1"/>
+      <c r="T213" s="1"/>
+      <c r="U213" s="1"/>
+      <c r="V213" s="1"/>
+      <c r="W213" s="1"/>
+      <c r="X213" s="1"/>
+      <c r="Y213" s="1"/>
+      <c r="Z213" s="1"/>
+    </row>
+    <row r="214" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A214" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B214" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C214" s="1"/>
+      <c r="D214" s="1"/>
+      <c r="E214" s="1"/>
+      <c r="F214" s="1"/>
+      <c r="G214" s="1"/>
+      <c r="H214" s="1"/>
+      <c r="I214" s="1"/>
+      <c r="J214" s="1"/>
+      <c r="K214" s="1"/>
+      <c r="L214" s="1"/>
+      <c r="M214" s="1"/>
+      <c r="N214" s="1"/>
+      <c r="O214" s="1"/>
+      <c r="P214" s="1"/>
+      <c r="Q214" s="1"/>
+      <c r="R214" s="1"/>
+      <c r="S214" s="1"/>
+      <c r="T214" s="1"/>
+      <c r="U214" s="1"/>
+      <c r="V214" s="1"/>
+      <c r="W214" s="1"/>
+      <c r="X214" s="1"/>
+      <c r="Y214" s="1"/>
+      <c r="Z214" s="1"/>
+    </row>
+    <row r="215" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A215" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B215" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C215" s="1"/>
+      <c r="D215" s="1"/>
+      <c r="E215" s="1"/>
+      <c r="F215" s="1"/>
+      <c r="G215" s="1"/>
+      <c r="H215" s="1"/>
+      <c r="I215" s="1"/>
+      <c r="J215" s="1"/>
+      <c r="K215" s="1"/>
+      <c r="L215" s="1"/>
+      <c r="M215" s="1"/>
+      <c r="N215" s="1"/>
+      <c r="O215" s="1"/>
+      <c r="P215" s="1"/>
+      <c r="Q215" s="1"/>
+      <c r="R215" s="1"/>
+      <c r="S215" s="1"/>
+      <c r="T215" s="1"/>
+      <c r="U215" s="1"/>
+      <c r="V215" s="1"/>
+      <c r="W215" s="1"/>
+      <c r="X215" s="1"/>
+      <c r="Y215" s="1"/>
+      <c r="Z215" s="1"/>
+    </row>
+    <row r="216" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A216" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B216" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C216" s="1"/>
+      <c r="D216" s="1"/>
+      <c r="E216" s="1"/>
+      <c r="F216" s="1"/>
+      <c r="G216" s="1"/>
+      <c r="H216" s="1"/>
+      <c r="I216" s="1"/>
+      <c r="J216" s="1"/>
+      <c r="K216" s="1"/>
+      <c r="L216" s="1"/>
+      <c r="M216" s="1"/>
+      <c r="N216" s="1"/>
+      <c r="O216" s="1"/>
+      <c r="P216" s="1"/>
+      <c r="Q216" s="1"/>
+      <c r="R216" s="1"/>
+      <c r="S216" s="1"/>
+      <c r="T216" s="1"/>
+      <c r="U216" s="1"/>
+      <c r="V216" s="1"/>
+      <c r="W216" s="1"/>
+      <c r="X216" s="1"/>
+      <c r="Y216" s="1"/>
+      <c r="Z216" s="1"/>
+    </row>
+    <row r="217" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A217" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B217" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C217" s="1"/>
+      <c r="D217" s="1"/>
+      <c r="E217" s="1"/>
+      <c r="F217" s="1"/>
+      <c r="G217" s="1"/>
+      <c r="H217" s="1"/>
+      <c r="I217" s="1"/>
+      <c r="J217" s="1"/>
+      <c r="K217" s="1"/>
+      <c r="L217" s="1"/>
+      <c r="M217" s="1"/>
+      <c r="N217" s="1"/>
+      <c r="O217" s="1"/>
+      <c r="P217" s="1"/>
+      <c r="Q217" s="1"/>
+      <c r="R217" s="1"/>
+      <c r="S217" s="1"/>
+      <c r="T217" s="1"/>
+      <c r="U217" s="1"/>
+      <c r="V217" s="1"/>
+      <c r="W217" s="1"/>
+      <c r="X217" s="1"/>
+      <c r="Y217" s="1"/>
+      <c r="Z217" s="1"/>
+    </row>
+    <row r="218" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A218" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B218" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C218" s="1"/>
+      <c r="D218" s="1"/>
+      <c r="E218" s="1"/>
+      <c r="F218" s="1"/>
+      <c r="G218" s="1"/>
+      <c r="H218" s="1"/>
+      <c r="I218" s="1"/>
+      <c r="J218" s="1"/>
+      <c r="K218" s="1"/>
+      <c r="L218" s="1"/>
+      <c r="M218" s="1"/>
+      <c r="N218" s="1"/>
+      <c r="O218" s="1"/>
+      <c r="P218" s="1"/>
+      <c r="Q218" s="1"/>
+      <c r="R218" s="1"/>
+      <c r="S218" s="1"/>
+      <c r="T218" s="1"/>
+      <c r="U218" s="1"/>
+      <c r="V218" s="1"/>
+      <c r="W218" s="1"/>
+      <c r="X218" s="1"/>
+      <c r="Y218" s="1"/>
+      <c r="Z218" s="1"/>
+    </row>
+    <row r="219" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A219" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B219" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C219" s="1"/>
+      <c r="D219" s="1"/>
+      <c r="E219" s="1"/>
+      <c r="F219" s="1"/>
+      <c r="G219" s="1"/>
+      <c r="H219" s="1"/>
+      <c r="I219" s="1"/>
+      <c r="J219" s="1"/>
+      <c r="K219" s="1"/>
+      <c r="L219" s="1"/>
+      <c r="M219" s="1"/>
+      <c r="N219" s="1"/>
+      <c r="O219" s="1"/>
+      <c r="P219" s="1"/>
+      <c r="Q219" s="1"/>
+      <c r="R219" s="1"/>
+      <c r="S219" s="1"/>
+      <c r="T219" s="1"/>
+      <c r="U219" s="1"/>
+      <c r="V219" s="1"/>
+      <c r="W219" s="1"/>
+      <c r="X219" s="1"/>
+      <c r="Y219" s="1"/>
+      <c r="Z219" s="1"/>
+    </row>
+    <row r="220" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A220" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="B220" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="C220" s="0" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A221" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="B221" s="0" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A222" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="B222" s="0" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A223" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="B223" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A224" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="B224" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A225" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="B225" s="0" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A226" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="B226" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A227" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="B227" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A228" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="B228" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A229" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="B229" s="0" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A230" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="B230" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A231" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="B231" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="C231" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D231" s="0" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A232" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="B232" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A233" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="B233" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A234" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A235" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A236" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="B236" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A237" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="B237" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A238" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="B238" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A239" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="B239" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A240" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="B240" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A241" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="B241" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A242" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="B242" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A243" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="B243" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A244" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="B244" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D244" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A245" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="B245" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A246" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="B246" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A247" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="B247" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A248" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="B248" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A249" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="B249" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A250" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="B250" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A251" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="B251" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A252" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="B252" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A253" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="B253" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A254" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="B254" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A255" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="B255" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A256" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="B256" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A257" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="B257" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D257" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A258" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="B258" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A259" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="B259" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A260" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="B260" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A261" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="B261" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A262" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="B262" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A263" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="B263" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A264" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="B264" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A265" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="B265" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A266" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="B266" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A267" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="B267" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A268" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="B268" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A269" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="B269" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A270" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="B270" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A271" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="B271" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A272" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="B272" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A273" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B273" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D273" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A274" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B274" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="B275" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="B276" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A277" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="B277" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A278" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="B278" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A279" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="B279" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A280" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="B280" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A281" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="B281" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A282" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="B282" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A283" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="B283" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A284" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="B284" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A285" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="B285" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A286" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="B286" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D286" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A287" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="B287" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A288" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="B288" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A289" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="B289" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A290" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="B290" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A291" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="B291" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A292" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="B292" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A293" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="B293" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="294" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A294" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="B294" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="295" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A295" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="B295" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="C295" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D295" s="0" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="296" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A296" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="B296" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="297" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A297" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="B297" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="298" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A298" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="B298" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="299" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A299" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="B299" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="300" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A300" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="B300" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="301" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A301" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="B301" s="0" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="302" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A302" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="B302" s="0" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="303" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A303" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="B303" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="304" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A304" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="B304" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="C304" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D304" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="305" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A305" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="B305" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="C305" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D305" s="0" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="306" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A306" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="B306" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="C306" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D306" s="0" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="307" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A307" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="B307" s="0" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0" footer="0"/>

--- a/new_classification_db/NX - ANTI CLASSIFICATION.xlsx
+++ b/new_classification_db/NX - ANTI CLASSIFICATION.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="141">
   <si>
     <t xml:space="preserve">RemoveClass</t>
   </si>
@@ -389,6 +389,9 @@
   </si>
   <si>
     <t xml:space="preserve">HABIÉNDOSE TRANSFERIDO LA CANTIDAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COPIA DE TRANSFERENCIA</t>
   </si>
   <si>
     <t xml:space="preserve">N12</t>
@@ -449,7 +452,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -484,12 +487,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -553,7 +550,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -565,7 +562,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -588,18 +585,18 @@
   </sheetPr>
   <dimension ref="A1:Z65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A77" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B97" activeCellId="0" sqref="B97"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A210" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B223" activeCellId="0" sqref="B223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.0612244897959"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="66.9642857142857"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.10204081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="81.0051020408163"/>
-    <col collapsed="false" hidden="false" max="26" min="5" style="0" width="8.10204081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.6530612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="66.280612244898"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="80.0510204081633"/>
+    <col collapsed="false" hidden="false" max="26" min="5" style="0" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="13.2295918367347"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3439,31 +3436,31 @@
     </row>
     <row r="223" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="B223" s="0" t="s">
         <v>123</v>
-      </c>
-      <c r="B223" s="0" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B225" s="0" t="s">
-        <v>124</v>
+        <v>39</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B226" s="0" t="s">
         <v>125</v>
@@ -3471,631 +3468,631 @@
     </row>
     <row r="227" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B227" s="0" t="s">
-        <v>42</v>
+        <v>126</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B229" s="0" t="s">
-        <v>127</v>
+        <v>43</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B230" s="0" t="s">
         <v>128</v>
-      </c>
-      <c r="B230" s="0" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="C231" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="D231" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>83</v>
+        <v>81</v>
+      </c>
+      <c r="C232" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D232" s="0" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B234" s="1" t="s">
-        <v>16</v>
+        <v>129</v>
+      </c>
+      <c r="B234" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>84</v>
+        <v>16</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B236" s="4" t="s">
-        <v>14</v>
+        <v>129</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B239" s="5" t="s">
-        <v>10</v>
+        <v>129</v>
+      </c>
+      <c r="B239" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B240" s="4" t="s">
-        <v>28</v>
+        <v>129</v>
+      </c>
+      <c r="B240" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B244" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D244" s="3" t="s">
-        <v>18</v>
+        <v>129</v>
+      </c>
+      <c r="B244" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B245" s="4" t="s">
-        <v>30</v>
+        <v>129</v>
+      </c>
+      <c r="B245" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D245" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B251" s="5" t="s">
-        <v>33</v>
+        <v>129</v>
+      </c>
+      <c r="B251" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>85</v>
+        <v>32</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D257" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
+      </c>
+      <c r="D258" s="5" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A260" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A261" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A262" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B262" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A263" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B263" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A264" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A265" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="B265" s="4" t="s">
-        <v>14</v>
+      <c r="B265" s="5" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A266" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A267" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A268" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="B268" s="5" t="s">
-        <v>10</v>
+        <v>130</v>
+      </c>
+      <c r="B268" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A269" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="B269" s="4" t="s">
-        <v>28</v>
+        <v>130</v>
+      </c>
+      <c r="B269" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A270" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A271" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A272" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B272" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A273" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="B273" s="4" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="273" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A273" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B273" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D273" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A274" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B274" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B274" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D274" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A275" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B275" s="4" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="B275" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="B280" s="5" t="s">
-        <v>33</v>
+        <v>130</v>
+      </c>
+      <c r="B280" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B281" s="5" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B282" s="5" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>85</v>
+        <v>32</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B284" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B285" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B286" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D286" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B287" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
+      </c>
+      <c r="D287" s="5" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B290" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B291" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B292" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B293" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A294" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="B294" s="5" t="s">
         <v>96</v>
-      </c>
-    </row>
-    <row r="294" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A294" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="B294" s="0" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A295" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B295" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="C295" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="D295" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A296" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B296" s="0" t="s">
-        <v>83</v>
+        <v>81</v>
+      </c>
+      <c r="C296" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D296" s="0" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A297" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B297" s="0" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A298" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B298" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A299" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="B299" s="4" t="s">
-        <v>29</v>
+        <v>130</v>
+      </c>
+      <c r="B299" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A300" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>84</v>
+        <v>29</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A301" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="B301" s="0" t="s">
-        <v>131</v>
+      <c r="B301" s="4" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A302" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B302" s="0" t="s">
         <v>132</v>
@@ -4103,7 +4100,7 @@
     </row>
     <row r="303" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A303" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B303" s="0" t="s">
         <v>133</v>
@@ -4111,24 +4108,18 @@
     </row>
     <row r="304" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A304" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B304" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="C304" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="D304" s="0" t="s">
-        <v>135</v>
-      </c>
     </row>
     <row r="305" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A305" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B305" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C305" s="0" t="s">
         <v>21</v>
@@ -4139,27 +4130,40 @@
     </row>
     <row r="306" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A306" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B306" s="0" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C306" s="0" t="s">
         <v>21</v>
       </c>
       <c r="D306" s="0" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A307" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B307" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="C307" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D307" s="0" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="308" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A308" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="B308" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
     <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/new_classification_db/NX - ANTI CLASSIFICATION.xlsx
+++ b/new_classification_db/NX - ANTI CLASSIFICATION.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="143">
   <si>
     <t xml:space="preserve">RemoveClass</t>
   </si>
@@ -223,9 +223,15 @@
     <t xml:space="preserve">ACUERDO DAR CUENTA A S.Sª</t>
   </si>
   <si>
+    <t xml:space="preserve">ACUERDO DAR CUENTA A S.SA</t>
+  </si>
+  <si>
     <t xml:space="preserve">DESE CUENTA A LA MAGISTRADO JUEZ</t>
   </si>
   <si>
+    <t xml:space="preserve">DAR CUENTA A S.Sª</t>
+  </si>
+  <si>
     <t xml:space="preserve">N4</t>
   </si>
   <si>
@@ -235,15 +241,12 @@
     <t xml:space="preserve">N5</t>
   </si>
   <si>
+    <t xml:space="preserve">DESE CUENTA A S.SA</t>
+  </si>
+  <si>
     <t xml:space="preserve">SE DA CUENTA A S.Sª</t>
   </si>
   <si>
-    <t xml:space="preserve">DAR CUENTA A S.Sª</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACUERDO DAR CUENTA A S.SA</t>
-  </si>
-  <si>
     <t xml:space="preserve">N6</t>
   </si>
   <si>
@@ -376,6 +379,12 @@
     <t xml:space="preserve">DAR TRASLADO DEL REFERIDO ESCRITO A LAS DEMÁS PARTES</t>
   </si>
   <si>
+    <t xml:space="preserve">NOTIFIQUESE ESTA RESOLUCION AL/LOS EJECUTADOS CON ENTREGA DE COPIA DE LA DEMANDA EJECUTIVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOTIFIQUESE ESTA RESOLUCION AL/LOS EJECUTADOS, CON ENTREGA DE COPIA DE LA DEMANDA EJECUTIVA</t>
+  </si>
+  <si>
     <t xml:space="preserve">N11</t>
   </si>
   <si>
@@ -389,9 +398,6 @@
   </si>
   <si>
     <t xml:space="preserve">HABIÉNDOSE TRANSFERIDO LA CANTIDAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COPIA DE TRANSFERENCIA</t>
   </si>
   <si>
     <t xml:space="preserve">N12</t>
@@ -452,7 +458,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -487,6 +493,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -537,7 +549,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -563,6 +575,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -585,18 +601,18 @@
   </sheetPr>
   <dimension ref="A1:Z65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A210" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B223" activeCellId="0" sqref="B223"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A214" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B232" activeCellId="0" sqref="B232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.6530612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="66.280612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.96428571428571"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="80.0510204081633"/>
-    <col collapsed="false" hidden="false" max="26" min="5" style="0" width="7.96428571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.1122448979592"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="98.8163265306122"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="78.2959183673469"/>
+    <col collapsed="false" hidden="false" max="26" min="5" style="0" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1823,7 +1839,7 @@
       <c r="A90" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B90" s="4" t="s">
+      <c r="B90" s="6" t="s">
         <v>67</v>
       </c>
       <c r="C90" s="4"/>
@@ -1852,1085 +1868,1013 @@
       <c r="Z90" s="1"/>
     </row>
     <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="s">
+      <c r="A91" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B91" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B91" s="0" t="s">
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+      <c r="O91" s="1"/>
+      <c r="P91" s="1"/>
+      <c r="Q91" s="1"/>
+      <c r="R91" s="1"/>
+      <c r="S91" s="1"/>
+      <c r="T91" s="1"/>
+      <c r="U91" s="1"/>
+      <c r="V91" s="1"/>
+      <c r="W91" s="1"/>
+      <c r="X91" s="1"/>
+      <c r="Y91" s="1"/>
+      <c r="Z91" s="1"/>
+    </row>
+    <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A92" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B92" s="5" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B92" s="0" t="s">
-        <v>47</v>
-      </c>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
+      <c r="O92" s="1"/>
+      <c r="P92" s="1"/>
+      <c r="Q92" s="1"/>
+      <c r="R92" s="1"/>
+      <c r="S92" s="1"/>
+      <c r="T92" s="1"/>
+      <c r="U92" s="1"/>
+      <c r="V92" s="1"/>
+      <c r="W92" s="1"/>
+      <c r="X92" s="1"/>
+      <c r="Y92" s="1"/>
+      <c r="Z92" s="1"/>
     </row>
     <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B93" s="0" t="s">
-        <v>71</v>
-      </c>
+      <c r="A93" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+      <c r="N93" s="1"/>
+      <c r="O93" s="1"/>
+      <c r="P93" s="1"/>
+      <c r="Q93" s="1"/>
+      <c r="R93" s="1"/>
+      <c r="S93" s="1"/>
+      <c r="T93" s="1"/>
+      <c r="U93" s="1"/>
+      <c r="V93" s="1"/>
+      <c r="W93" s="1"/>
+      <c r="X93" s="1"/>
+      <c r="Y93" s="1"/>
+      <c r="Z93" s="1"/>
     </row>
     <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="B94" s="5" t="s">
-        <v>72</v>
+      <c r="B94" s="0" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
+      </c>
+      <c r="B95" s="0" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>66</v>
+        <v>72</v>
+      </c>
+      <c r="B96" s="0" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A97" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>67</v>
+      <c r="A97" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B97" s="0" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="B99" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A103" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B104" s="0" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A100" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B100" s="4" t="s">
+    <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B105" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A101" s="6" t="s">
+    <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A106" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B106" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B101" s="4" t="s">
+    </row>
+    <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A107" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B107" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A102" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B102" s="4" t="s">
+    <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A108" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B108" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A103" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B103" s="4" t="s">
+    <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A109" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B109" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A104" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B104" s="5" t="s">
+    <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A110" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B110" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A105" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B105" s="4" t="s">
+    <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A111" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B111" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A106" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B106" s="4" t="s">
+    <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A112" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B112" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A107" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B107" s="4" t="s">
+    <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A113" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B113" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A108" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B108" s="4" t="s">
+    <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A114" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B114" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A109" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B109" s="5" t="s">
+    <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A115" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B115" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D109" s="0" t="s">
+      <c r="D115" s="0" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A110" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B110" s="4" t="s">
+    <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A116" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B116" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A111" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B111" s="4" t="s">
+    <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A117" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B117" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A112" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B112" s="4" t="s">
+    <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A118" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B118" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A113" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B113" s="4" t="s">
+    <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A119" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B119" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A114" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B114" s="4" t="s">
+    <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A120" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B120" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A115" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B115" s="4" t="s">
+    <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A121" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B121" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A116" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B116" s="5" t="s">
+    <row r="122" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A122" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B122" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A117" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B117" s="5" t="s">
+    <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A123" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B123" s="5" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A118" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="B118" s="0" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A119" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="B119" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="C119" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="D119" s="0" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A120" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="B120" s="0" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A121" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="B121" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A122" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A123" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="B124" s="4" t="s">
-        <v>14</v>
+        <v>80</v>
+      </c>
+      <c r="B124" s="0" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="B125" s="4" t="s">
-        <v>3</v>
+        <v>80</v>
+      </c>
+      <c r="B125" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="C125" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D125" s="0" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="B126" s="4" t="s">
-        <v>44</v>
+        <v>80</v>
+      </c>
+      <c r="B126" s="0" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="B127" s="5" t="s">
-        <v>10</v>
+        <v>80</v>
+      </c>
+      <c r="B127" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="B128" s="4" t="s">
-        <v>28</v>
+        <v>80</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="B129" s="4" t="s">
-        <v>9</v>
+        <v>80</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="B132" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D132" s="3" t="s">
-        <v>18</v>
+        <v>80</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="B133" s="4" t="s">
-        <v>30</v>
+        <v>80</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="B138" s="4" t="s">
-        <v>6</v>
+        <v>80</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="B139" s="5" t="s">
-        <v>33</v>
+        <v>80</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="B140" s="5" t="s">
-        <v>45</v>
+        <v>80</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="B141" s="5" t="s">
-        <v>32</v>
+        <v>80</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="B142" s="5" t="s">
-        <v>85</v>
+        <v>80</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="B143" s="5" t="s">
-        <v>86</v>
+        <v>80</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="B144" s="5" t="s">
-        <v>87</v>
+        <v>80</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D145" s="5" t="s">
-        <v>89</v>
+        <v>33</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>90</v>
+        <v>45</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>91</v>
+        <v>32</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>95</v>
+        <v>89</v>
+      </c>
+      <c r="D151" s="5" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="B153" s="0" t="s">
-        <v>3</v>
+        <v>80</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="B154" s="0" t="s">
-        <v>6</v>
+        <v>80</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="B155" s="0" t="s">
-        <v>4</v>
+        <v>80</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="B156" s="0" t="s">
-        <v>31</v>
+        <v>80</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="B157" s="0" t="s">
-        <v>98</v>
+        <v>80</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B158" s="5" t="s">
         <v>97</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="B160" s="4" t="s">
-        <v>14</v>
+        <v>98</v>
+      </c>
+      <c r="B160" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="B161" s="4" t="s">
-        <v>3</v>
+        <v>98</v>
+      </c>
+      <c r="B161" s="0" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="B162" s="4" t="s">
-        <v>44</v>
+        <v>98</v>
+      </c>
+      <c r="B162" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="B163" s="5" t="s">
-        <v>10</v>
+        <v>98</v>
+      </c>
+      <c r="B163" s="0" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="B164" s="4" t="s">
-        <v>28</v>
+        <v>98</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="B165" s="4" t="s">
-        <v>9</v>
+        <v>98</v>
+      </c>
+      <c r="B165" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="B168" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D168" s="3" t="s">
-        <v>18</v>
+        <v>98</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="B169" s="4" t="s">
-        <v>30</v>
+        <v>98</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="B174" s="4" t="s">
-        <v>6</v>
+        <v>98</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="B175" s="5" t="s">
-        <v>33</v>
+        <v>98</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="B176" s="5" t="s">
-        <v>45</v>
+        <v>98</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="B177" s="0" t="s">
-        <v>100</v>
+        <v>98</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="B178" s="0" t="s">
-        <v>101</v>
+        <v>98</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="B179" s="0" t="s">
-        <v>102</v>
+        <v>98</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="B180" s="0" t="s">
-        <v>3</v>
+        <v>98</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="B181" s="0" t="s">
-        <v>6</v>
+        <v>98</v>
+      </c>
+      <c r="B181" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="B182" s="0" t="s">
-        <v>4</v>
+        <v>98</v>
+      </c>
+      <c r="B182" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>32</v>
+        <v>103</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>104</v>
+        <v>6</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>105</v>
+        <v>4</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>108</v>
+        <v>32</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A199" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B199" s="4" t="s">
+      <c r="A199" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B199" s="0" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A200" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B200" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A201" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B201" s="0" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A202" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B202" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A203" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B203" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="C199" s="1"/>
-      <c r="D199" s="1"/>
-      <c r="E199" s="1"/>
-      <c r="F199" s="1"/>
-      <c r="G199" s="1"/>
-      <c r="H199" s="1"/>
-      <c r="I199" s="1"/>
-      <c r="J199" s="1"/>
-      <c r="K199" s="1"/>
-      <c r="L199" s="1"/>
-      <c r="M199" s="1"/>
-      <c r="N199" s="1"/>
-      <c r="O199" s="1"/>
-      <c r="P199" s="1"/>
-      <c r="Q199" s="1"/>
-      <c r="R199" s="1"/>
-      <c r="S199" s="1"/>
-      <c r="T199" s="1"/>
-      <c r="U199" s="1"/>
-      <c r="V199" s="1"/>
-      <c r="W199" s="1"/>
-      <c r="X199" s="1"/>
-      <c r="Y199" s="1"/>
-      <c r="Z199" s="1"/>
-    </row>
-    <row r="200" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A200" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B200" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C200" s="1"/>
-      <c r="D200" s="1"/>
-      <c r="E200" s="1"/>
-      <c r="F200" s="1"/>
-      <c r="G200" s="1"/>
-      <c r="H200" s="1"/>
-      <c r="I200" s="1"/>
-      <c r="J200" s="1"/>
-      <c r="K200" s="1"/>
-      <c r="L200" s="1"/>
-      <c r="M200" s="1"/>
-      <c r="N200" s="1"/>
-      <c r="O200" s="1"/>
-      <c r="P200" s="1"/>
-      <c r="Q200" s="1"/>
-      <c r="R200" s="1"/>
-      <c r="S200" s="1"/>
-      <c r="T200" s="1"/>
-      <c r="U200" s="1"/>
-      <c r="V200" s="1"/>
-      <c r="W200" s="1"/>
-      <c r="X200" s="1"/>
-      <c r="Y200" s="1"/>
-      <c r="Z200" s="1"/>
-    </row>
-    <row r="201" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A201" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B201" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C201" s="1"/>
-      <c r="D201" s="1"/>
-      <c r="E201" s="1"/>
-      <c r="F201" s="1"/>
-      <c r="G201" s="1"/>
-      <c r="H201" s="1"/>
-      <c r="I201" s="1"/>
-      <c r="J201" s="1"/>
-      <c r="K201" s="1"/>
-      <c r="L201" s="1"/>
-      <c r="M201" s="1"/>
-      <c r="N201" s="1"/>
-      <c r="O201" s="1"/>
-      <c r="P201" s="1"/>
-      <c r="Q201" s="1"/>
-      <c r="R201" s="1"/>
-      <c r="S201" s="1"/>
-      <c r="T201" s="1"/>
-      <c r="U201" s="1"/>
-      <c r="V201" s="1"/>
-      <c r="W201" s="1"/>
-      <c r="X201" s="1"/>
-      <c r="Y201" s="1"/>
-      <c r="Z201" s="1"/>
-    </row>
-    <row r="202" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A202" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B202" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C202" s="1"/>
-      <c r="D202" s="1"/>
-      <c r="E202" s="1"/>
-      <c r="F202" s="1"/>
-      <c r="G202" s="1"/>
-      <c r="H202" s="1"/>
-      <c r="I202" s="1"/>
-      <c r="J202" s="1"/>
-      <c r="K202" s="1"/>
-      <c r="L202" s="1"/>
-      <c r="M202" s="1"/>
-      <c r="N202" s="1"/>
-      <c r="O202" s="1"/>
-      <c r="P202" s="1"/>
-      <c r="Q202" s="1"/>
-      <c r="R202" s="1"/>
-      <c r="S202" s="1"/>
-      <c r="T202" s="1"/>
-      <c r="U202" s="1"/>
-      <c r="V202" s="1"/>
-      <c r="W202" s="1"/>
-      <c r="X202" s="1"/>
-      <c r="Y202" s="1"/>
-      <c r="Z202" s="1"/>
-    </row>
-    <row r="203" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A203" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B203" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C203" s="1"/>
-      <c r="D203" s="1"/>
-      <c r="E203" s="1"/>
-      <c r="F203" s="1"/>
-      <c r="G203" s="1"/>
-      <c r="H203" s="1"/>
-      <c r="I203" s="1"/>
-      <c r="J203" s="1"/>
-      <c r="K203" s="1"/>
-      <c r="L203" s="1"/>
-      <c r="M203" s="1"/>
-      <c r="N203" s="1"/>
-      <c r="O203" s="1"/>
-      <c r="P203" s="1"/>
-      <c r="Q203" s="1"/>
-      <c r="R203" s="1"/>
-      <c r="S203" s="1"/>
-      <c r="T203" s="1"/>
-      <c r="U203" s="1"/>
-      <c r="V203" s="1"/>
-      <c r="W203" s="1"/>
-      <c r="X203" s="1"/>
-      <c r="Y203" s="1"/>
-      <c r="Z203" s="1"/>
     </row>
     <row r="204" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A204" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B204" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C204" s="1"/>
-      <c r="D204" s="1"/>
-      <c r="E204" s="1"/>
-      <c r="F204" s="1"/>
-      <c r="G204" s="1"/>
-      <c r="H204" s="1"/>
-      <c r="I204" s="1"/>
-      <c r="J204" s="1"/>
-      <c r="K204" s="1"/>
-      <c r="L204" s="1"/>
-      <c r="M204" s="1"/>
-      <c r="N204" s="1"/>
-      <c r="O204" s="1"/>
-      <c r="P204" s="1"/>
-      <c r="Q204" s="1"/>
-      <c r="R204" s="1"/>
-      <c r="S204" s="1"/>
-      <c r="T204" s="1"/>
-      <c r="U204" s="1"/>
-      <c r="V204" s="1"/>
-      <c r="W204" s="1"/>
-      <c r="X204" s="1"/>
-      <c r="Y204" s="1"/>
-      <c r="Z204" s="1"/>
+      <c r="A204" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B204" s="0" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="205" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A205" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>44</v>
+        <v>116</v>
       </c>
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
@@ -2959,10 +2903,10 @@
     </row>
     <row r="206" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A206" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B206" s="5" t="s">
-        <v>10</v>
+        <v>100</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>117</v>
       </c>
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
@@ -2991,10 +2935,10 @@
     </row>
     <row r="207" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A207" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
@@ -3023,10 +2967,10 @@
     </row>
     <row r="208" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A208" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
@@ -3055,10 +2999,10 @@
     </row>
     <row r="209" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A209" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
@@ -3087,10 +3031,10 @@
     </row>
     <row r="210" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A210" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
@@ -3119,15 +3063,13 @@
     </row>
     <row r="211" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A211" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B211" s="5" t="s">
-        <v>17</v>
+        <v>100</v>
+      </c>
+      <c r="B211" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="C211" s="1"/>
-      <c r="D211" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="D211" s="1"/>
       <c r="E211" s="1"/>
       <c r="F211" s="1"/>
       <c r="G211" s="1"/>
@@ -3153,10 +3095,10 @@
     </row>
     <row r="212" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A212" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B212" s="4" t="s">
-        <v>30</v>
+        <v>100</v>
+      </c>
+      <c r="B212" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
@@ -3185,10 +3127,10 @@
     </row>
     <row r="213" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A213" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
@@ -3217,10 +3159,10 @@
     </row>
     <row r="214" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A214" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
@@ -3249,10 +3191,10 @@
     </row>
     <row r="215" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A215" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
@@ -3281,10 +3223,10 @@
     </row>
     <row r="216" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A216" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
@@ -3313,13 +3255,15 @@
     </row>
     <row r="217" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A217" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B217" s="4" t="s">
-        <v>6</v>
+        <v>100</v>
+      </c>
+      <c r="B217" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="C217" s="1"/>
-      <c r="D217" s="1"/>
+      <c r="D217" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="E217" s="1"/>
       <c r="F217" s="1"/>
       <c r="G217" s="1"/>
@@ -3345,10 +3289,10 @@
     </row>
     <row r="218" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A218" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B218" s="5" t="s">
-        <v>33</v>
+        <v>100</v>
+      </c>
+      <c r="B218" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
@@ -3377,10 +3321,10 @@
     </row>
     <row r="219" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A219" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B219" s="5" t="s">
-        <v>45</v>
+        <v>100</v>
+      </c>
+      <c r="B219" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
@@ -3408,769 +3352,1010 @@
       <c r="Z219" s="1"/>
     </row>
     <row r="220" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A220" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="B220" s="0" t="s">
+      <c r="A220" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B220" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C220" s="1"/>
+      <c r="D220" s="1"/>
+      <c r="E220" s="1"/>
+      <c r="F220" s="1"/>
+      <c r="G220" s="1"/>
+      <c r="H220" s="1"/>
+      <c r="I220" s="1"/>
+      <c r="J220" s="1"/>
+      <c r="K220" s="1"/>
+      <c r="L220" s="1"/>
+      <c r="M220" s="1"/>
+      <c r="N220" s="1"/>
+      <c r="O220" s="1"/>
+      <c r="P220" s="1"/>
+      <c r="Q220" s="1"/>
+      <c r="R220" s="1"/>
+      <c r="S220" s="1"/>
+      <c r="T220" s="1"/>
+      <c r="U220" s="1"/>
+      <c r="V220" s="1"/>
+      <c r="W220" s="1"/>
+      <c r="X220" s="1"/>
+      <c r="Y220" s="1"/>
+      <c r="Z220" s="1"/>
+    </row>
+    <row r="221" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A221" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B221" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C221" s="1"/>
+      <c r="D221" s="1"/>
+      <c r="E221" s="1"/>
+      <c r="F221" s="1"/>
+      <c r="G221" s="1"/>
+      <c r="H221" s="1"/>
+      <c r="I221" s="1"/>
+      <c r="J221" s="1"/>
+      <c r="K221" s="1"/>
+      <c r="L221" s="1"/>
+      <c r="M221" s="1"/>
+      <c r="N221" s="1"/>
+      <c r="O221" s="1"/>
+      <c r="P221" s="1"/>
+      <c r="Q221" s="1"/>
+      <c r="R221" s="1"/>
+      <c r="S221" s="1"/>
+      <c r="T221" s="1"/>
+      <c r="U221" s="1"/>
+      <c r="V221" s="1"/>
+      <c r="W221" s="1"/>
+      <c r="X221" s="1"/>
+      <c r="Y221" s="1"/>
+      <c r="Z221" s="1"/>
+    </row>
+    <row r="222" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A222" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B222" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C222" s="1"/>
+      <c r="D222" s="1"/>
+      <c r="E222" s="1"/>
+      <c r="F222" s="1"/>
+      <c r="G222" s="1"/>
+      <c r="H222" s="1"/>
+      <c r="I222" s="1"/>
+      <c r="J222" s="1"/>
+      <c r="K222" s="1"/>
+      <c r="L222" s="1"/>
+      <c r="M222" s="1"/>
+      <c r="N222" s="1"/>
+      <c r="O222" s="1"/>
+      <c r="P222" s="1"/>
+      <c r="Q222" s="1"/>
+      <c r="R222" s="1"/>
+      <c r="S222" s="1"/>
+      <c r="T222" s="1"/>
+      <c r="U222" s="1"/>
+      <c r="V222" s="1"/>
+      <c r="W222" s="1"/>
+      <c r="X222" s="1"/>
+      <c r="Y222" s="1"/>
+      <c r="Z222" s="1"/>
+    </row>
+    <row r="223" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A223" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B223" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C223" s="1"/>
+      <c r="D223" s="1"/>
+      <c r="E223" s="1"/>
+      <c r="F223" s="1"/>
+      <c r="G223" s="1"/>
+      <c r="H223" s="1"/>
+      <c r="I223" s="1"/>
+      <c r="J223" s="1"/>
+      <c r="K223" s="1"/>
+      <c r="L223" s="1"/>
+      <c r="M223" s="1"/>
+      <c r="N223" s="1"/>
+      <c r="O223" s="1"/>
+      <c r="P223" s="1"/>
+      <c r="Q223" s="1"/>
+      <c r="R223" s="1"/>
+      <c r="S223" s="1"/>
+      <c r="T223" s="1"/>
+      <c r="U223" s="1"/>
+      <c r="V223" s="1"/>
+      <c r="W223" s="1"/>
+      <c r="X223" s="1"/>
+      <c r="Y223" s="1"/>
+      <c r="Z223" s="1"/>
+    </row>
+    <row r="224" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A224" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B224" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C224" s="1"/>
+      <c r="D224" s="1"/>
+      <c r="E224" s="1"/>
+      <c r="F224" s="1"/>
+      <c r="G224" s="1"/>
+      <c r="H224" s="1"/>
+      <c r="I224" s="1"/>
+      <c r="J224" s="1"/>
+      <c r="K224" s="1"/>
+      <c r="L224" s="1"/>
+      <c r="M224" s="1"/>
+      <c r="N224" s="1"/>
+      <c r="O224" s="1"/>
+      <c r="P224" s="1"/>
+      <c r="Q224" s="1"/>
+      <c r="R224" s="1"/>
+      <c r="S224" s="1"/>
+      <c r="T224" s="1"/>
+      <c r="U224" s="1"/>
+      <c r="V224" s="1"/>
+      <c r="W224" s="1"/>
+      <c r="X224" s="1"/>
+      <c r="Y224" s="1"/>
+      <c r="Z224" s="1"/>
+    </row>
+    <row r="225" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A225" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B225" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C225" s="1"/>
+      <c r="D225" s="1"/>
+      <c r="E225" s="1"/>
+      <c r="F225" s="1"/>
+      <c r="G225" s="1"/>
+      <c r="H225" s="1"/>
+      <c r="I225" s="1"/>
+      <c r="J225" s="1"/>
+      <c r="K225" s="1"/>
+      <c r="L225" s="1"/>
+      <c r="M225" s="1"/>
+      <c r="N225" s="1"/>
+      <c r="O225" s="1"/>
+      <c r="P225" s="1"/>
+      <c r="Q225" s="1"/>
+      <c r="R225" s="1"/>
+      <c r="S225" s="1"/>
+      <c r="T225" s="1"/>
+      <c r="U225" s="1"/>
+      <c r="V225" s="1"/>
+      <c r="W225" s="1"/>
+      <c r="X225" s="1"/>
+      <c r="Y225" s="1"/>
+      <c r="Z225" s="1"/>
+    </row>
+    <row r="226" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A226" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B226" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C220" s="0" t="s">
+      <c r="C226" s="1"/>
+      <c r="D226" s="1"/>
+      <c r="E226" s="1"/>
+      <c r="F226" s="1"/>
+      <c r="G226" s="1"/>
+      <c r="H226" s="1"/>
+      <c r="I226" s="1"/>
+      <c r="J226" s="1"/>
+      <c r="K226" s="1"/>
+      <c r="L226" s="1"/>
+      <c r="M226" s="1"/>
+      <c r="N226" s="1"/>
+      <c r="O226" s="1"/>
+      <c r="P226" s="1"/>
+      <c r="Q226" s="1"/>
+      <c r="R226" s="1"/>
+      <c r="S226" s="1"/>
+      <c r="T226" s="1"/>
+      <c r="U226" s="1"/>
+      <c r="V226" s="1"/>
+      <c r="W226" s="1"/>
+      <c r="X226" s="1"/>
+      <c r="Y226" s="1"/>
+      <c r="Z226" s="1"/>
+    </row>
+    <row r="227" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A227" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B227" s="5" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="221" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A221" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="B221" s="0" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="222" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A222" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="B222" s="0" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="223" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A223" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="B223" s="0" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="224" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A224" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="B224" s="0" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="225" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A225" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="B225" s="0" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="226" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A226" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="B226" s="0" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="227" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A227" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="B227" s="0" t="s">
-        <v>126</v>
-      </c>
+      <c r="C227" s="1"/>
+      <c r="D227" s="1"/>
+      <c r="E227" s="1"/>
+      <c r="F227" s="1"/>
+      <c r="G227" s="1"/>
+      <c r="H227" s="1"/>
+      <c r="I227" s="1"/>
+      <c r="J227" s="1"/>
+      <c r="K227" s="1"/>
+      <c r="L227" s="1"/>
+      <c r="M227" s="1"/>
+      <c r="N227" s="1"/>
+      <c r="O227" s="1"/>
+      <c r="P227" s="1"/>
+      <c r="Q227" s="1"/>
+      <c r="R227" s="1"/>
+      <c r="S227" s="1"/>
+      <c r="T227" s="1"/>
+      <c r="U227" s="1"/>
+      <c r="V227" s="1"/>
+      <c r="W227" s="1"/>
+      <c r="X227" s="1"/>
+      <c r="Y227" s="1"/>
+      <c r="Z227" s="1"/>
     </row>
     <row r="228" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>42</v>
+        <v>122</v>
+      </c>
+      <c r="C228" s="0" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="B229" s="0" t="s">
         <v>124</v>
-      </c>
-      <c r="B229" s="0" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="C232" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="D232" s="0" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>83</v>
+        <v>127</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>15</v>
+        <v>128</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="B235" s="1" t="s">
-        <v>16</v>
+        <v>126</v>
+      </c>
+      <c r="B235" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="B236" s="1" t="s">
-        <v>84</v>
+        <v>126</v>
+      </c>
+      <c r="B236" s="0" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="B237" s="4" t="s">
-        <v>14</v>
+      <c r="B237" s="0" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="B238" s="4" t="s">
-        <v>3</v>
+        <v>131</v>
+      </c>
+      <c r="B238" s="0" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="B239" s="4" t="s">
-        <v>44</v>
+        <v>131</v>
+      </c>
+      <c r="B239" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="C239" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D239" s="0" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="B240" s="5" t="s">
-        <v>10</v>
+        <v>131</v>
+      </c>
+      <c r="B240" s="0" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="B241" s="4" t="s">
-        <v>28</v>
+        <v>131</v>
+      </c>
+      <c r="B241" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="B242" s="4" t="s">
-        <v>9</v>
+        <v>131</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="B243" s="4" t="s">
-        <v>8</v>
+        <v>131</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="B245" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D245" s="3" t="s">
-        <v>18</v>
+        <v>131</v>
+      </c>
+      <c r="B245" s="4" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="B247" s="4" t="s">
-        <v>15</v>
+        <v>131</v>
+      </c>
+      <c r="B247" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>33</v>
+        <v>17</v>
+      </c>
+      <c r="D252" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="B253" s="5" t="s">
-        <v>45</v>
+        <v>131</v>
+      </c>
+      <c r="B253" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="B254" s="5" t="s">
-        <v>32</v>
+        <v>131</v>
+      </c>
+      <c r="B254" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="B255" s="5" t="s">
-        <v>85</v>
+        <v>131</v>
+      </c>
+      <c r="B255" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="B256" s="5" t="s">
-        <v>86</v>
+        <v>131</v>
+      </c>
+      <c r="B256" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="B257" s="5" t="s">
-        <v>87</v>
+        <v>131</v>
+      </c>
+      <c r="B257" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="B258" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D258" s="5" t="s">
-        <v>89</v>
+        <v>131</v>
+      </c>
+      <c r="B258" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A260" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A261" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A262" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B262" s="5" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A263" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B263" s="5" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A264" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A265" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B265" s="5" t="s">
-        <v>96</v>
+        <v>89</v>
+      </c>
+      <c r="D265" s="5" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A266" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="B266" s="4" t="s">
-        <v>14</v>
+        <v>131</v>
+      </c>
+      <c r="B266" s="5" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A267" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="B267" s="4" t="s">
-        <v>3</v>
+        <v>131</v>
+      </c>
+      <c r="B267" s="5" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A268" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="B268" s="4" t="s">
-        <v>44</v>
+        <v>131</v>
+      </c>
+      <c r="B268" s="5" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A269" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B269" s="5" t="s">
-        <v>10</v>
+        <v>94</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A270" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="B270" s="4" t="s">
-        <v>28</v>
+        <v>131</v>
+      </c>
+      <c r="B270" s="5" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A271" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="B271" s="4" t="s">
-        <v>9</v>
+        <v>131</v>
+      </c>
+      <c r="B271" s="5" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A272" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="B272" s="4" t="s">
-        <v>8</v>
+        <v>131</v>
+      </c>
+      <c r="B272" s="5" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A273" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B273" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A274" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="B274" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A275" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="B275" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A276" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="B276" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A277" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="B277" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A278" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="B278" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A279" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="B279" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A280" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="B280" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="274" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A274" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B274" s="5" t="s">
+    <row r="281" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A281" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B281" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D274" s="3" t="s">
+      <c r="D281" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="275" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A275" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B275" s="4" t="s">
+    <row r="282" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A282" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B282" s="4" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="B276" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="B277" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="B278" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="B279" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="B280" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="B281" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A282" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="B282" s="5" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="B283" s="5" t="s">
-        <v>32</v>
+        <v>132</v>
+      </c>
+      <c r="B283" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="B284" s="5" t="s">
-        <v>85</v>
+        <v>132</v>
+      </c>
+      <c r="B284" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="B285" s="5" t="s">
-        <v>86</v>
+        <v>132</v>
+      </c>
+      <c r="B285" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="B286" s="5" t="s">
-        <v>87</v>
+        <v>132</v>
+      </c>
+      <c r="B286" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="B287" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D287" s="5" t="s">
-        <v>89</v>
+        <v>132</v>
+      </c>
+      <c r="B287" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B290" s="5" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B291" s="5" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B292" s="5" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B294" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D294" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A295" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="B295" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A296" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="B296" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A297" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="B297" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A298" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="B298" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A299" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="B299" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A300" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="B300" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="295" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A295" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="B295" s="0" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="296" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A296" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="B296" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="C296" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="D296" s="0" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="297" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A297" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="B297" s="0" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="298" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A298" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="B298" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="299" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A299" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="B299" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="300" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A300" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="B300" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="301" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="B301" s="4" t="s">
-        <v>84</v>
+        <v>132</v>
+      </c>
+      <c r="B301" s="5" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A302" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B302" s="0" t="s">
-        <v>132</v>
+        <v>81</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A303" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B303" s="0" t="s">
-        <v>133</v>
+        <v>82</v>
+      </c>
+      <c r="C303" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D303" s="0" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A304" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B304" s="0" t="s">
-        <v>134</v>
+        <v>84</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A305" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B305" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="C305" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="D305" s="0" t="s">
-        <v>136</v>
+        <v>15</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A306" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B306" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="C306" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="D306" s="0" t="s">
-        <v>137</v>
+        <v>16</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A307" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="B307" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="C307" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="D307" s="0" t="s">
-        <v>139</v>
+        <v>132</v>
+      </c>
+      <c r="B307" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A308" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="B308" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="B308" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="309" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A309" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="B309" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="310" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A310" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="B310" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="311" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A311" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="B311" s="0" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="312" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A312" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="B312" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="C312" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D312" s="0" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="313" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A313" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="B313" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="C313" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D313" s="0" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="314" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A314" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="B314" s="0" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="C314" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D314" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="315" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A315" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="B315" s="0" t="s">
+        <v>142</v>
+      </c>
+    </row>
     <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
